--- a/biology/Zoologie/Aigle_de_Java/Aigle_de_Java.xlsx
+++ b/biology/Zoologie/Aigle_de_Java/Aigle_de_Java.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nisaetus bartelsi
 L'Aigle de Java (Nisaetus bartelsi) est une espèce d'oiseaux de la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'île de Java en Indonésie. Elle vit principalement dans la forêt humide primaire, mais on la trouve également dans la forêt secondaire ainsi que dans la forêt tropicale semi-décidue.
 </t>
